--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_3_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-843876.9241078029</v>
+        <v>-849165.0396025748</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892725</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12723404.93025162</v>
+        <v>12721634.99208036</v>
       </c>
     </row>
     <row r="11">
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>205.9057951181668</v>
       </c>
       <c r="H2" t="n">
-        <v>156.6673030236565</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>25.42418790478663</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>50.6435372072316</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.02230597417468</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.25613704105142</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>35.68050076165599</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>109.0922659382586</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>167.5573060520105</v>
+        <v>50.6435372072316</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>101.9878479526848</v>
+        <v>196.8399967687678</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>235.4551847859273</v>
       </c>
       <c r="Y8" t="n">
-        <v>136.6365428672116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>118.5652204237202</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>46.66637815986219</v>
       </c>
     </row>
     <row r="11">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>304.4049362032941</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>118.2093639267769</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>60.07894323613093</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>74.50522802429188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>325.4114858595509</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>310.5084051007669</v>
       </c>
       <c r="E14" t="n">
-        <v>327.479377239889</v>
+        <v>74.18177964251677</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372791</v>
+        <v>65.87543334372785</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362797</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>296.2107322866634</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>88.34088543059715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>91.25177731608625</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>97.4247543599387</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465754</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442481</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456092</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901683</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457862</v>
+        <v>38.85749488046903</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>192.241239332652</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,16 +2327,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414335</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404347</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007179</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.5117922803542</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219393</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507304</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484031</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723244</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380448</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497641</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943233</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815734</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093891</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227894</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619113</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126125</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841673</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564647</v>
       </c>
       <c r="I32" t="n">
-        <v>30.6172884383888</v>
+        <v>24.17382596575027</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828892</v>
+        <v>52.06849973565039</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434679</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970378</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308072</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086859</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435642</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158953</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431724</v>
+        <v>70.57601873167872</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459965</v>
+        <v>55.72314698196112</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643938</v>
+        <v>41.29686219380085</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931849</v>
+        <v>41.22330424667996</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908576</v>
+        <v>42.97275566644723</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147789</v>
+        <v>53.79159358883936</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804993</v>
+        <v>41.14384575541141</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922186</v>
+        <v>18.98356133658334</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367778</v>
+        <v>9.882059701039253</v>
       </c>
       <c r="S34" t="n">
-        <v>94.4514656792051</v>
+        <v>88.00800320656657</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407387</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678085</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546745</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754246</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221372</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988135</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190366</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875521</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277564</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059319</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541631</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880397</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908638</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.7168126509261</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380521</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357248</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596462</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253666</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708589</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369182</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249338</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325499</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593878</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875351</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277547</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059302</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.9959691888038</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.1430974390862</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092593</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380504</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357231</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596444</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253649</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708418</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369165</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.5209712559386</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1151.540496061234</v>
+        <v>1110.204228944845</v>
       </c>
       <c r="C2" t="n">
-        <v>1151.540496061234</v>
+        <v>1110.204228944845</v>
       </c>
       <c r="D2" t="n">
-        <v>766.0993672779016</v>
+        <v>724.7631001615132</v>
       </c>
       <c r="E2" t="n">
-        <v>766.0993672779016</v>
+        <v>724.7631001615132</v>
       </c>
       <c r="F2" t="n">
-        <v>349.2049288078794</v>
+        <v>711.909065731895</v>
       </c>
       <c r="G2" t="n">
-        <v>340.0825773362866</v>
+        <v>503.9234140973831</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M2" t="n">
-        <v>1040.448080049574</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572948</v>
+        <v>1562.028895694247</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465276</v>
+        <v>2002.068496586576</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>2002.068496586576</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102451</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737746</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737746</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="U2" t="n">
-        <v>1919.030240172345</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="V2" t="n">
-        <v>1919.030240172345</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="W2" t="n">
-        <v>1548.031205140633</v>
+        <v>1499.656834011789</v>
       </c>
       <c r="X2" t="n">
-        <v>1548.031205140633</v>
+        <v>1110.204228944845</v>
       </c>
       <c r="Y2" t="n">
-        <v>1151.540496061234</v>
+        <v>1110.204228944845</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021415</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622337</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>375.070220083714</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946018</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F3" t="n">
-        <v>212.9427313109789</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G3" t="n">
-        <v>92.88291338284334</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442699</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="K3" t="n">
-        <v>209.0779451028514</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L3" t="n">
-        <v>692.6440310011646</v>
+        <v>361.242392818565</v>
       </c>
       <c r="M3" t="n">
-        <v>1230.902816011257</v>
+        <v>874.8450714282549</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021349</v>
+        <v>921.5731989359509</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021349</v>
+        <v>1435.175877545641</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737746</v>
+        <v>1840.797246262038</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675956</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431029</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.2595894695633</v>
+        <v>382.9931810662279</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0544715355524</v>
+        <v>382.9931810662279</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355524</v>
+        <v>227.3600679687427</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687427</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687427</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475493</v>
+        <v>227.3600679687427</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023663</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>71.88151693023663</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>852.7925551150107</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>852.7925551150107</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>617.0735032832448</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>617.0735032832448</v>
       </c>
       <c r="V4" t="n">
-        <v>393.5245449990326</v>
+        <v>617.0735032832448</v>
       </c>
       <c r="W4" t="n">
-        <v>393.5245449990326</v>
+        <v>617.0735032832448</v>
       </c>
       <c r="X4" t="n">
-        <v>393.5245449990326</v>
+        <v>382.9931810662279</v>
       </c>
       <c r="Y4" t="n">
-        <v>393.5245449990326</v>
+        <v>382.9931810662279</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1258.993982160106</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="C5" t="n">
-        <v>1258.993982160106</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="D5" t="n">
-        <v>873.552853376774</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="E5" t="n">
-        <v>873.552853376774</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="F5" t="n">
-        <v>456.6584149067518</v>
+        <v>374.7086486614407</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475493</v>
+        <v>365.5862971898479</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222167</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222167</v>
+        <v>534.8235384748674</v>
       </c>
       <c r="M5" t="n">
-        <v>940.7368004323089</v>
+        <v>1048.426217084557</v>
       </c>
       <c r="N5" t="n">
-        <v>1468.548084069771</v>
+        <v>1562.028895694247</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>2002.068496586576</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102451</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297163</v>
+        <v>1870.655869043501</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.529637731762</v>
+        <v>1614.9031394781</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.529637731762</v>
+        <v>1272.796330181618</v>
       </c>
       <c r="W5" t="n">
-        <v>1659.488727871503</v>
+        <v>901.7972951499059</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.488727871503</v>
+        <v>791.6030871314629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1659.488727871503</v>
+        <v>791.6030871314629</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888298</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719616</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442699</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>361.242392818565</v>
       </c>
       <c r="L6" t="n">
-        <v>863.9003081626715</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.159093172764</v>
+        <v>921.5731989359509</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182856</v>
+        <v>921.5731989359509</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1435.175877545641</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262038</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816929</v>
       </c>
       <c r="T6" t="n">
-        <v>1846.68544544274</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1636.622302121382</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1414.082300492449</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1183.965054625736</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>994.6579769757473</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="C7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="D7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="E7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="F7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633858</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400802</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783442</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>585.3226407371185</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>482.3046125020833</v>
+        <v>744.121989733479</v>
       </c>
       <c r="V7" t="n">
-        <v>482.3046125020833</v>
+        <v>744.121989733479</v>
       </c>
       <c r="W7" t="n">
-        <v>198.974210433261</v>
+        <v>460.7915876646567</v>
       </c>
       <c r="X7" t="n">
-        <v>198.974210433261</v>
+        <v>226.7112654476398</v>
       </c>
       <c r="Y7" t="n">
-        <v>198.974210433261</v>
+        <v>226.7112654476398</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1399.691530617481</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="C8" t="n">
-        <v>1399.691530617481</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="D8" t="n">
-        <v>1014.250401834149</v>
+        <v>1742.373856308063</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4817,37 +4817,37 @@
         <v>1973.427801529577</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1938.202986295759</v>
+        <v>2127.814985091395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1800.186276328878</v>
+        <v>2127.814985091395</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>963.7331842818107</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>2134.729194295015</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.28341352229</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.1131821936958</v>
+        <v>716.4142182347623</v>
       </c>
       <c r="C10" t="n">
-        <v>478.1131821936958</v>
+        <v>546.2091003007515</v>
       </c>
       <c r="D10" t="n">
-        <v>478.1131821936958</v>
+        <v>390.5759872032662</v>
       </c>
       <c r="E10" t="n">
-        <v>322.5543700528983</v>
+        <v>235.0171750624687</v>
       </c>
       <c r="F10" t="n">
-        <v>322.5543700528983</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>663.3212008849971</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>663.3212008849971</v>
+        <v>901.6222369260636</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1621.58371308251</v>
+        <v>1615.418592984052</v>
       </c>
       <c r="C11" t="n">
-        <v>1300.204486731634</v>
+        <v>1294.039366633177</v>
       </c>
       <c r="D11" t="n">
         <v>986.5596330944956</v>
       </c>
       <c r="E11" t="n">
-        <v>655.772383357234</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="F11" t="n">
-        <v>655.772383357234</v>
+        <v>655.7723833572339</v>
       </c>
       <c r="G11" t="n">
         <v>314.405902991431</v>
@@ -5072,19 +5072,19 @@
         <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2891.835707387186</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2891.835707387186</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W11" t="n">
-        <v>2592.632947501667</v>
+        <v>2257.769356838006</v>
       </c>
       <c r="X11" t="n">
-        <v>2274.976617580918</v>
+        <v>1940.113026917257</v>
       </c>
       <c r="Y11" t="n">
-        <v>1950.282183647713</v>
+        <v>1615.418592984052</v>
       </c>
     </row>
     <row r="12">
@@ -5118,16 +5118,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M12" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>292.7837755129681</v>
+        <v>307.3557803494938</v>
       </c>
       <c r="C13" t="n">
-        <v>292.7837755129681</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="D13" t="n">
         <v>208.9469375616769</v>
@@ -5185,31 +5185,31 @@
         <v>208.9469375616769</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,7 +5218,7 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
@@ -5230,19 +5230,19 @@
         <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245447</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915628</v>
+        <v>741.8597555915624</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689343</v>
+        <v>530.3256286689339</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981114</v>
+        <v>368.041581598111</v>
       </c>
       <c r="Y13" t="n">
-        <v>292.7837755129681</v>
+        <v>368.041581598111</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1370.477011451001</v>
+        <v>1777.366558978414</v>
       </c>
       <c r="C14" t="n">
-        <v>1370.477011451001</v>
+        <v>1455.987332627539</v>
       </c>
       <c r="D14" t="n">
-        <v>1056.832157813863</v>
+        <v>1142.3424789904</v>
       </c>
       <c r="E14" t="n">
-        <v>726.0449080766009</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>380.9467447527725</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5318,10 +5318,10 @@
         <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>1788.408699622868</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="Y14" t="n">
-        <v>1699.175482016204</v>
+        <v>2106.065029543617</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>2122.831274102045</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>327.9727833788482</v>
+        <v>391.1183173440972</v>
       </c>
       <c r="C16" t="n">
-        <v>229.5639405910313</v>
+        <v>292.7094745562805</v>
       </c>
       <c r="D16" t="n">
-        <v>229.5639405910313</v>
+        <v>292.7094745562805</v>
       </c>
       <c r="E16" t="n">
-        <v>145.8014035964277</v>
+        <v>208.9469375616769</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208437</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774628</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118224</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138162</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593279</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.71283314325</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457678</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457733</v>
+        <v>1110.435347407693</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127914</v>
+        <v>916.2522773747115</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901628</v>
+        <v>704.718150452083</v>
       </c>
       <c r="X16" t="n">
-        <v>420.1462958193394</v>
+        <v>542.43410338126</v>
       </c>
       <c r="Y16" t="n">
-        <v>420.1462958193394</v>
+        <v>391.1183173440972</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099316</v>
@@ -5507,25 +5507,25 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5595,22 +5595,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5683,16 +5683,16 @@
         <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5744,25 +5744,25 @@
         <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129445</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,13 +5771,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5786,7 +5786,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
@@ -5795,7 +5795,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5838,16 +5838,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803433</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924236</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
@@ -6017,22 +6017,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573996</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>112.6101842924878</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031230035</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222422</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.661451296042</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567345</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879436</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296516</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,22 +6206,22 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,34 +6230,34 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
-        <v>3483.397387236564</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
         <v>3060.13197616485</v>
@@ -6297,28 +6297,28 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.817576692272</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1953.595547902831</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>2157.335302368295</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517125</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746015</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904108</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,22 +6461,22 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>247.9841471388009</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>606.9665031662628</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884792</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658946</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.201702025981</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647883</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
         <v>3334.531518508978</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>218.9633184712348</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>702.529404369548</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1330.301053996229</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1986.079025206788</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918593</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303048</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.02046740124</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993098</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108122</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803401</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835561</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234523</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>255.2650543744645</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>614.2474104019263</v>
       </c>
       <c r="L32" t="n">
-        <v>1277.046154349721</v>
+        <v>1107.567702120455</v>
       </c>
       <c r="M32" t="n">
-        <v>1823.047054394302</v>
+        <v>1765.220722740018</v>
       </c>
       <c r="N32" t="n">
-        <v>2456.131430758834</v>
+        <v>2404.684126952463</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765609</v>
+        <v>2844.723727844791</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.531851897131</v>
+        <v>3192.911219976313</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117261</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117261</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939837</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397276</v>
+        <v>3215.580844380778</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696901</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281945</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131757</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946339</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748464</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898327</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234523</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>180.6701178220726</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>1500.624429827983</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="N33" t="n">
-        <v>2153.517991661507</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>2153.517991661507</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965121</v>
+        <v>365.6713676929749</v>
       </c>
       <c r="C34" t="n">
-        <v>350.429060991866</v>
+        <v>309.3853606404888</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237454</v>
+        <v>267.6713584245284</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123126</v>
+        <v>226.0316571652557</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546502</v>
+        <v>182.6248332597534</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407238</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431902</v>
+        <v>86.73045008374254</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.55513560234523</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076159</v>
+        <v>143.5810516071634</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>225.4160927171053</v>
       </c>
       <c r="L34" t="n">
-        <v>514.80999600762</v>
+        <v>389.5437325909051</v>
       </c>
       <c r="M34" t="n">
-        <v>806.3746670729544</v>
+        <v>575.8353109291691</v>
       </c>
       <c r="N34" t="n">
-        <v>1094.837393831234</v>
+        <v>759.0249449603782</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872942</v>
+        <v>1033.381832577069</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.91011892863</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873663</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387765</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451839</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501598</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250238</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395506</v>
+        <v>835.7257283273728</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000929</v>
+        <v>666.3144371400753</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124407</v>
+        <v>546.1532258045831</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584487</v>
+        <v>436.9602755027514</v>
       </c>
     </row>
     <row r="35">
@@ -6929,46 +6929,46 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924234</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404073</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573995</v>
@@ -6977,10 +6977,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>658.8001958221562</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1314.578167032715</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>1831.098449623696</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885601</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369577</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218808</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634917</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.915947958873</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072693</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462928</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411556</v>
+        <v>67.69877031229871</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012539</v>
+        <v>149.5338114222406</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750537</v>
+        <v>313.6614512960404</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133177</v>
+        <v>499.9530296343044</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445269</v>
+        <v>683.1426636655136</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862349</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532864</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476282</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918818</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161911</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194237</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330097</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984012</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197453</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7430,10 +7430,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7451,10 +7451,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1009.629923393023</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7561,7 +7561,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,7 +7579,7 @@
         <v>499.953029634305</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O43" t="n">
         <v>974.9038003296507</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975446</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924214</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7670,28 +7670,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7731,13 +7731,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1084.690231197904</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N45" t="n">
-        <v>1740.468202408463</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885588</v>
+        <v>235.9319791885595</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369566</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218799</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634909</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072654</v>
+        <v>87.33863074072676</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462908</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K46" t="n">
         <v>143.9541688140574</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O46" t="n">
-        <v>845.847430707221</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106228</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918796</v>
+        <v>923.0205001918807</v>
       </c>
       <c r="U46" t="n">
-        <v>769.258445116189</v>
+        <v>769.2584451161902</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194218</v>
+        <v>634.9558366194228</v>
       </c>
       <c r="W46" t="n">
-        <v>483.302171233008</v>
+        <v>483.3021712330089</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856983996</v>
+        <v>380.8985856984005</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974515</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519595</v>
       </c>
       <c r="N2" t="n">
-        <v>312.0096393411922</v>
+        <v>667.9090757920163</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>218.3308612773347</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>256.8517693819156</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837485</v>
+        <v>611.1777065035441</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886033</v>
+        <v>132.5722416498192</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431211</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,25 +8216,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321639</v>
+        <v>668.5156360519595</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920163</v>
       </c>
       <c r="O5" t="n">
-        <v>324.5151842882431</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>224.1336100998677</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>481.5255190649615</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837485</v>
+        <v>169.9272434827187</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431211</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8465,13 +8465,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>359.0336792490003</v>
+        <v>545.7463662600596</v>
       </c>
       <c r="P8" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,19 +8538,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>333.2595653118437</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>325.939387961783</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8778,7 +8778,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>333.2595653118431</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,16 +9012,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>684.2495388215582</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>347.309009847301</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
         <v>90.98815315591399</v>
@@ -9243,25 +9243,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684351</v>
+        <v>263.7907196684361</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9486,19 +9486,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>457.616862805975</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>140.5980025943154</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>298.485290672186</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>236.6660863673582</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,7 +10425,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
@@ -10434,16 +10434,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>744.8605591506561</v>
+        <v>333.2595653118433</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
         <v>327.7205688679246</v>
@@ -10665,22 +10665,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>405.2562148204912</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10902,19 +10902,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>543.8532815002535</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>301.8549375253374</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11379,16 +11379,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>688.0608343844987</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O45" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>6.103468897472833</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>63.90752594823849</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>52.1986828735254</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>75.29740015249922</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>253.2975975973721</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>233.1066041632758</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.0258487935701</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177843</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338899</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901689</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>172.6485965653171</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1114602.173254925</v>
+        <v>1113699.851834284</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1114602.173254925</v>
+        <v>1113699.851834284</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>994867.0195228735</v>
+        <v>994867.0195228733</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>994867.0195228733</v>
+        <v>994867.0195228735</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>180332.1780933568</v>
       </c>
       <c r="C2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="D2" t="n">
         <v>180332.1780933568</v>
@@ -26323,25 +26323,25 @@
         <v>159359.0234244008</v>
       </c>
       <c r="F2" t="n">
-        <v>159359.0234244008</v>
+        <v>159359.0234244007</v>
       </c>
       <c r="G2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="H2" t="n">
         <v>180332.1780933569</v>
       </c>
       <c r="I2" t="n">
-        <v>180332.1780933567</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="J2" t="n">
         <v>180332.1780933568</v>
       </c>
       <c r="K2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933569</v>
       </c>
       <c r="L2" t="n">
-        <v>180332.1780933572</v>
+        <v>180332.1780933567</v>
       </c>
       <c r="M2" t="n">
         <v>180332.1780933569</v>
@@ -26353,7 +26353,7 @@
         <v>180332.1780933569</v>
       </c>
       <c r="P2" t="n">
-        <v>180332.1780933568</v>
+        <v>180332.1780933569</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340557</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106221</v>
+        <v>22558.42953401298</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668193</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399298</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.2417753964</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962305</v>
+        <v>43252.52447081112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277129</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746772</v>
       </c>
       <c r="C4" t="n">
-        <v>199815.2079190949</v>
+        <v>205625.0607746771</v>
       </c>
       <c r="D4" t="n">
         <v>188683.9728110359</v>
@@ -26436,7 +26436,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="I4" t="n">
-        <v>160556.2909917899</v>
+        <v>160556.29099179</v>
       </c>
       <c r="J4" t="n">
         <v>161306.7834561731</v>
@@ -26445,7 +26445,7 @@
         <v>161306.7834561731</v>
       </c>
       <c r="L4" t="n">
-        <v>161051.2095556897</v>
+        <v>160917.814946635</v>
       </c>
       <c r="M4" t="n">
         <v>160556.29099179</v>
@@ -26457,7 +26457,7 @@
         <v>160556.29099179</v>
       </c>
       <c r="P4" t="n">
-        <v>160556.29099179</v>
+        <v>160556.2909917901</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481731</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481731</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,31 +26485,31 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="I5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="I5" t="n">
-        <v>58169.76931551965</v>
-      </c>
       <c r="J5" t="n">
-        <v>63659.04525391951</v>
+        <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315429</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268372.2792576075</v>
+        <v>-264321.6072501934</v>
       </c>
       <c r="C6" t="n">
-        <v>-86167.3309657519</v>
+        <v>-90462.95021613773</v>
       </c>
       <c r="D6" t="n">
-        <v>-92759.39230547438</v>
+        <v>-100495.6815288653</v>
       </c>
       <c r="E6" t="n">
-        <v>-118746.9322496921</v>
+        <v>-118956.6637963816</v>
       </c>
       <c r="F6" t="n">
-        <v>-6624.370775647432</v>
+        <v>-6834.102322337198</v>
       </c>
       <c r="G6" t="n">
-        <v>-85819.20775063484</v>
+        <v>-85819.20775063487</v>
       </c>
       <c r="H6" t="n">
+        <v>-38393.88221395278</v>
+      </c>
+      <c r="I6" t="n">
         <v>-38393.88221395281</v>
       </c>
-      <c r="I6" t="n">
-        <v>-38393.88221395286</v>
-      </c>
       <c r="J6" t="n">
-        <v>-251435.7998112383</v>
+        <v>-244919.5146566656</v>
       </c>
       <c r="K6" t="n">
-        <v>-44633.65061673575</v>
+        <v>-44633.65061673572</v>
       </c>
       <c r="L6" t="n">
-        <v>-99816.23955135667</v>
+        <v>-103865.076761829</v>
       </c>
       <c r="M6" t="n">
-        <v>-80594.71167357585</v>
+        <v>-81646.40668476393</v>
       </c>
       <c r="N6" t="n">
-        <v>-38393.88221395278</v>
+        <v>-38393.88221395281</v>
       </c>
       <c r="O6" t="n">
-        <v>-66161.5762567241</v>
+        <v>-66161.57625672399</v>
       </c>
       <c r="P6" t="n">
-        <v>-38393.88221395287</v>
+        <v>-38393.88221395283</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
+        <v>71.07831239473194</v>
+      </c>
+      <c r="F2" t="n">
         <v>71.07831239473197</v>
-      </c>
-      <c r="F2" t="n">
-        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26704,19 +26704,19 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,31 +26805,31 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095199</v>
+        <v>844.4391950293153</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.07030221924551</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551328</v>
+        <v>17.58004954287486</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.7163838348585</v>
+        <v>72.62154181506287</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971661</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042778</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085241</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346411</v>
+        <v>34.70961755346404</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.7163838348585</v>
+        <v>72.62154181506287</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27388,13 +27388,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>203.1253328387101</v>
       </c>
       <c r="H2" t="n">
-        <v>164.1749169055177</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27467,13 +27467,13 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>97.76330015091288</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>82.93783312189824</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.3336325302136</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>33.40584243269738</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.6085439197394</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>276.4658130780151</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>7.656667631070093</v>
+        <v>124.570436475849</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27789,7 +27789,7 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>180.5965558878333</v>
+        <v>85.74440707175029</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>150.1028942303464</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.8892591213933</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>48.00629293782872</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,7 +28065,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>174.2145624116609</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473194</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473197</v>
       </c>
     </row>
     <row r="17">
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082774</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,25 +28986,25 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
-        <v>5.636002634528595</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7104901066892</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,10 +29226,10 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>86.65052755599527</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431647</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431647</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>30.27223765901272</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29746,46 +29746,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>43.49509683160727</v>
       </c>
       <c r="K32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="O32" t="n">
-        <v>48.65992738832949</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>106.8683420224804</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045103</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727095</v>
       </c>
     </row>
     <row r="35">
@@ -29983,34 +29983,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,34 +30141,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668753</v>
       </c>
       <c r="K37" t="n">
-        <v>128.2979821082793</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155843</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>35.7104901066881</v>
+        <v>35.71049010668811</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,10 +30651,10 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733466</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30885,43 +30885,43 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634528779</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634527784</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="N2" t="n">
-        <v>162.8911480034081</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>73.8321628589425</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>167.2548340485823</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344366</v>
+        <v>47.20012879565258</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="O5" t="n">
-        <v>174.9513468641467</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>73.8321628589425</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>391.4651722080433</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344366</v>
+        <v>77.5401214334068</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542322</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35185,13 +35185,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>209.4698418249039</v>
+        <v>396.1825288359632</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>247.8874524576771</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>233.2518290728942</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35498,7 +35498,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>247.8874524576764</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257287</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488442</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,16 +35732,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>260.2256450279863</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257284</v>
+        <v>41.0038249225729</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.8638072167519</v>
+        <v>236.863807216752</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696907</v>
+        <v>256.1183467696908</v>
       </c>
       <c r="O16" t="n">
         <v>235.4265619318108</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488445</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.110881726089</v>
+        <v>146.1108817260899</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36206,19 +36206,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>372.2447499518083</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724868</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>51.00106726098205</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634530128</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
@@ -36522,10 +36522,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36598,7 +36598,7 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>531.1349729017816</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>205.7977317832971</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.9167870021574</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446895</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>176.3831193851017</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>362.6084404317796</v>
@@ -36838,7 +36838,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>147.0691510340248</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>189.6059785576963</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.295980423801</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>645.9226305176207</v>
       </c>
       <c r="O32" t="n">
-        <v>493.1443727341158</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
@@ -37154,16 +37154,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>659.4884462964894</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
         <v>236.7324157120106</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>76.79385455032138</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.761933262471</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097884</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106677</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.236683782862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
-        <v>362.6084404317814</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
         <v>498.303324968211</v>
@@ -37385,22 +37385,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>318.1728500011766</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528463</v>
       </c>
       <c r="K37" t="n">
-        <v>210.9596397950892</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835494</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M38" t="n">
         <v>551.5160606510915</v>
@@ -37622,19 +37622,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>458.4811686460869</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>192.3607498019313</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110598</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>216.4828246711707</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>5.63600263452903</v>
+        <v>5.636002634529037</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,10 +37947,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
@@ -38038,7 +38038,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1.378022275413528e-12</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,16 +38099,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>595.6737123351868</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38181,19 +38181,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873207</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716066</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
